--- a/input/resources/source-data/DEQM_Capability_Statement_GIC_Reporter_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_GIC_Reporter_Client.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3B9848-112A-4CEF-9C1E-8D527A27ED91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8A3C3-5EF1-48A8-BD9A-D6FF0543BB7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="1275" yWindow="240" windowWidth="25200" windowHeight="13425" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -424,9 +424,6 @@
     <t>canon</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
     <t>publisher</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>evaluate-measure</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/OperationDefinition/evaluate-measure</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
@@ -542,6 +536,12 @@
   </si>
   <si>
     <t>This profile defines the expected capabilities of a Da Vinci DEQM Gaps In Care (GIC) Client when conforming to the Da Vinci DEQM Implementation Guide for interactions between Reporters and Receivers to exchange the gaps in care reports for a measure.  Reporters include systems that are primary reporters of patient healthcare information and systems that consume data from Producers.   This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Reporter Client could support. Clients have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/OperationDefinition/Measure-evaluate-measure</t>
   </si>
 </sst>
 </file>
@@ -997,7 +997,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,31 +1039,31 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
         <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" t="s">
         <v>118</v>
-      </c>
-      <c r="B7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1170,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1218,7 +1218,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1239,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +1261,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,15 +1269,15 @@
         <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -1444,10 +1444,10 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1458,16 +1458,16 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1579,12 +1579,12 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1592,13 +1592,13 @@
     </row>
     <row r="4" spans="1:24" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1615,8 +1615,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
         <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1702,10 +1702,10 @@
         <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">

--- a/input/resources/source-data/DEQM_Capability_Statement_GIC_Reporter_Client.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_GIC_Reporter_Client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\davinci-deqm\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8A3C3-5EF1-48A8-BD9A-D6FF0543BB7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51368336-D879-4601-898A-53BBEC0D0DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="240" windowWidth="25200" windowHeight="13425" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="3312" yWindow="1020" windowWidth="26052" windowHeight="15240" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -35,7 +35,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -259,9 +262,6 @@
     <t>DEQM DeviceUseStatement Profile</t>
   </si>
   <si>
-    <t>DEQM Organization Profile</t>
-  </si>
-  <si>
     <t>DEQM Coverage Profile</t>
   </si>
   <si>
@@ -400,9 +400,6 @@
     <t>should_revinclude</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -445,18 +442,9 @@
     <t>4.0.1</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
-  </si>
-  <si>
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
-  </si>
-  <si>
     <t>gic-reporter-client</t>
   </si>
   <si>
@@ -481,9 +469,6 @@
     <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
   </si>
   <si>
-    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
-  </si>
-  <si>
     <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
   </si>
   <si>
@@ -542,6 +527,24 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/OperationDefinition/Measure-evaluate-measure</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|3.0.0</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/qicore/StructureDefinition/qicore-organization</t>
+  </si>
+  <si>
+    <t>QI Core Organization Profile</t>
   </si>
 </sst>
 </file>
@@ -555,12 +558,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -599,6 +596,11 @@
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -657,7 +659,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -669,15 +671,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,9 +1002,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -1010,60 +1012,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>112</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>114</v>
       </c>
-      <c r="B5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1079,61 +1081,61 @@
       <selection activeCell="C8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2" s="7" t="str">
+      <c r="J2" s="6" t="str">
         <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
@@ -1148,16 +1150,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1165,68 +1167,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>89</v>
       </c>
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
       <c r="B4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1239,50 +1241,50 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.140625" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.109375" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1290,19 +1292,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1316,9 +1318,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -1330,9 +1332,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -1344,12 +1346,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1358,9 +1360,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -1372,9 +1374,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -1386,12 +1388,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1400,12 +1402,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1414,12 +1416,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1428,12 +1430,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1442,12 +1444,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>138</v>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1456,18 +1458,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>146</v>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1485,19 +1487,19 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1511,67 +1513,67 @@
         <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H1" t="s">
         <v>37</v>
       </c>
       <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
         <v>93</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>94</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>95</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>96</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>97</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>98</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>99</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>100</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>101</v>
       </c>
       <c r="R1" t="s">
         <v>27</v>
       </c>
       <c r="S1" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="58.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1579,26 +1581,26 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1615,19 +1617,19 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1644,29 +1646,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1686,78 +1688,78 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1775,9 +1777,9 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1785,42 +1787,42 @@
         <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
     </row>
@@ -1837,21 +1839,21 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1904,7 +1906,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
